--- a/ai-benchmark-results.xlsx
+++ b/ai-benchmark-results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9665a70efb10d034/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="14_{AB47F6EE-FEFA-4B19-8556-5BD789D19934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0FA07F4F-EE8D-4624-B523-5B98E461BDF0}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="14_{AB47F6EE-FEFA-4B19-8556-5BD789D19934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{621CA259-F850-442C-8171-0CFD5B0438CB}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1C751B26-9A10-4442-8F56-B30E5F0B4570}"/>
   </bookViews>
@@ -116,9 +116,6 @@
     <t>GeForce RTX 2070 SUPER</t>
   </si>
   <si>
-    <t>GeForce RTX 2080</t>
-  </si>
-  <si>
     <t>NVIDIA Tesla P100</t>
   </si>
   <si>
@@ -663,6 +660,9 @@
   </si>
   <si>
     <t>Training time</t>
+  </si>
+  <si>
+    <t>GeForce RTX 3050</t>
   </si>
 </sst>
 </file>
@@ -1094,8 +1094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576AF721-0803-4802-90FB-1EAC949B2A17}">
   <dimension ref="A1:Z198"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R2" sqref="P1:R1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1155,76 +1155,76 @@
     <row r="2" spans="1:26" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
       <c r="B2" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>208</v>
-      </c>
       <c r="D2" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>208</v>
-      </c>
       <c r="F2" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>208</v>
-      </c>
       <c r="H2" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>208</v>
-      </c>
       <c r="J2" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>208</v>
-      </c>
       <c r="L2" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>208</v>
-      </c>
       <c r="N2" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="O2" s="3" t="s">
-        <v>208</v>
-      </c>
       <c r="P2" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="Q2" s="3" t="s">
-        <v>208</v>
-      </c>
       <c r="R2" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="S2" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="S2" s="3" t="s">
-        <v>208</v>
-      </c>
       <c r="T2" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="U2" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="U2" s="3" t="s">
-        <v>208</v>
-      </c>
       <c r="V2" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="W2" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="W2" s="3" t="s">
-        <v>208</v>
-      </c>
       <c r="X2" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y2" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>208</v>
       </c>
       <c r="Z2" s="5"/>
     </row>
@@ -2322,7 +2322,7 @@
     </row>
     <row r="17" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>208</v>
       </c>
       <c r="B17" s="2">
         <v>76</v>
@@ -2400,7 +2400,7 @@
     </row>
     <row r="18" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2">
         <v>47</v>
@@ -2478,7 +2478,7 @@
     </row>
     <row r="19" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="2">
         <v>46</v>
@@ -2556,7 +2556,7 @@
     </row>
     <row r="20" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="2">
         <v>44</v>
@@ -2634,7 +2634,7 @@
     </row>
     <row r="21" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" s="2">
         <v>46</v>
@@ -2712,7 +2712,7 @@
     </row>
     <row r="22" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" s="2">
         <v>47</v>
@@ -2790,7 +2790,7 @@
     </row>
     <row r="23" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="2">
         <v>59</v>
@@ -2868,7 +2868,7 @@
     </row>
     <row r="24" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" s="2">
         <v>50</v>
@@ -2946,7 +2946,7 @@
     </row>
     <row r="25" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25" s="2">
         <v>39</v>
@@ -3024,7 +3024,7 @@
     </row>
     <row r="26" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26" s="2">
         <v>54</v>
@@ -3102,7 +3102,7 @@
     </row>
     <row r="27" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B27" s="2">
         <v>55</v>
@@ -3180,7 +3180,7 @@
     </row>
     <row r="28" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" s="2">
         <v>97</v>
@@ -3258,7 +3258,7 @@
     </row>
     <row r="29" spans="1:26" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" s="2">
         <v>67</v>
@@ -3336,7 +3336,7 @@
     </row>
     <row r="30" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" s="2">
         <v>62</v>
@@ -3414,7 +3414,7 @@
     </row>
     <row r="31" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31" s="2">
         <v>62</v>
@@ -3492,7 +3492,7 @@
     </row>
     <row r="32" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32" s="2">
         <v>69</v>
@@ -3570,7 +3570,7 @@
     </row>
     <row r="33" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B33" s="2">
         <v>62</v>
@@ -3648,7 +3648,7 @@
     </row>
     <row r="34" spans="1:26" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B34" s="2">
         <v>62</v>
@@ -3726,7 +3726,7 @@
     </row>
     <row r="35" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B35" s="2">
         <v>61</v>
@@ -3804,7 +3804,7 @@
     </row>
     <row r="36" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B36" s="2">
         <v>81</v>
@@ -3882,7 +3882,7 @@
     </row>
     <row r="37" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B37" s="2">
         <v>72</v>
@@ -3960,7 +3960,7 @@
     </row>
     <row r="38" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B38" s="2">
         <v>64</v>
@@ -4038,7 +4038,7 @@
     </row>
     <row r="39" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B39" s="2">
         <v>86</v>
@@ -4116,7 +4116,7 @@
     </row>
     <row r="40" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B40" s="2">
         <v>67</v>
@@ -4194,7 +4194,7 @@
     </row>
     <row r="41" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B41" s="2">
         <v>74</v>
@@ -4272,7 +4272,7 @@
     </row>
     <row r="42" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B42" s="2">
         <v>73</v>
@@ -4350,7 +4350,7 @@
     </row>
     <row r="43" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B43" s="2">
         <v>57</v>
@@ -4428,7 +4428,7 @@
     </row>
     <row r="44" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B44" s="2">
         <v>68</v>
@@ -4506,7 +4506,7 @@
     </row>
     <row r="45" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B45" s="2">
         <v>97</v>
@@ -4584,7 +4584,7 @@
     </row>
     <row r="46" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B46" s="2">
         <v>106</v>
@@ -4662,7 +4662,7 @@
     </row>
     <row r="47" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B47" s="2">
         <v>66</v>
@@ -4740,7 +4740,7 @@
     </row>
     <row r="48" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B48" s="2">
         <v>86</v>
@@ -4818,7 +4818,7 @@
     </row>
     <row r="49" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B49" s="2">
         <v>90</v>
@@ -4896,7 +4896,7 @@
     </row>
     <row r="50" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B50" s="2">
         <v>85</v>
@@ -4974,7 +4974,7 @@
     </row>
     <row r="51" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B51" s="2">
         <v>92</v>
@@ -5052,7 +5052,7 @@
     </row>
     <row r="52" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B52" s="2">
         <v>92</v>
@@ -5130,7 +5130,7 @@
     </row>
     <row r="53" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B53" s="2">
         <v>98</v>
@@ -5208,7 +5208,7 @@
     </row>
     <row r="54" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B54" s="2">
         <v>111</v>
@@ -5286,7 +5286,7 @@
     </row>
     <row r="55" spans="1:26" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B55" s="2">
         <v>84</v>
@@ -5364,7 +5364,7 @@
     </row>
     <row r="56" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B56" s="2">
         <v>124</v>
@@ -5442,7 +5442,7 @@
     </row>
     <row r="57" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B57" s="2">
         <v>122</v>
@@ -5520,7 +5520,7 @@
     </row>
     <row r="58" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B58" s="2">
         <v>115</v>
@@ -5598,7 +5598,7 @@
     </row>
     <row r="59" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B59" s="2">
         <v>105</v>
@@ -5676,7 +5676,7 @@
     </row>
     <row r="60" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B60" s="2">
         <v>109</v>
@@ -5754,7 +5754,7 @@
     </row>
     <row r="61" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B61" s="2">
         <v>130</v>
@@ -5832,7 +5832,7 @@
     </row>
     <row r="62" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B62" s="2">
         <v>136</v>
@@ -5910,7 +5910,7 @@
     </row>
     <row r="63" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B63" s="2">
         <v>122</v>
@@ -5988,7 +5988,7 @@
     </row>
     <row r="64" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B64" s="2">
         <v>102</v>
@@ -6066,7 +6066,7 @@
     </row>
     <row r="65" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B65" s="2">
         <v>162</v>
@@ -6144,7 +6144,7 @@
     </row>
     <row r="66" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B66" s="2">
         <v>150</v>
@@ -6222,7 +6222,7 @@
     </row>
     <row r="67" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B67" s="2">
         <v>123</v>
@@ -6300,7 +6300,7 @@
     </row>
     <row r="68" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B68" s="2">
         <v>175</v>
@@ -6378,7 +6378,7 @@
     </row>
     <row r="69" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B69" s="2">
         <v>178</v>
@@ -6456,7 +6456,7 @@
     </row>
     <row r="70" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B70" s="2">
         <v>163</v>
@@ -6534,7 +6534,7 @@
     </row>
     <row r="71" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B71" s="2">
         <v>133</v>
@@ -6612,7 +6612,7 @@
     </row>
     <row r="72" spans="1:26" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B72" s="2">
         <v>196</v>
@@ -6690,7 +6690,7 @@
     </row>
     <row r="73" spans="1:26" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B73" s="2">
         <v>205</v>
@@ -6768,7 +6768,7 @@
     </row>
     <row r="74" spans="1:26" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B74" s="2">
         <v>201</v>
@@ -6846,7 +6846,7 @@
     </row>
     <row r="75" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B75" s="2">
         <v>213</v>
@@ -6924,7 +6924,7 @@
     </row>
     <row r="76" spans="1:26" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B76" s="2">
         <v>133</v>
@@ -7002,7 +7002,7 @@
     </row>
     <row r="77" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B77" s="2">
         <v>133</v>
@@ -7080,7 +7080,7 @@
     </row>
     <row r="78" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B78" s="2">
         <v>149</v>
@@ -7158,7 +7158,7 @@
     </row>
     <row r="79" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B79" s="2">
         <v>183</v>
@@ -7236,7 +7236,7 @@
     </row>
     <row r="80" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B80" s="2">
         <v>227</v>
@@ -7314,7 +7314,7 @@
     </row>
     <row r="81" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B81" s="2">
         <v>245</v>
@@ -7392,7 +7392,7 @@
     </row>
     <row r="82" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B82" s="2">
         <v>224</v>
@@ -7470,7 +7470,7 @@
     </row>
     <row r="83" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B83" s="2">
         <v>215</v>
@@ -7548,7 +7548,7 @@
     </row>
     <row r="84" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B84" s="2">
         <v>173</v>
@@ -7626,7 +7626,7 @@
     </row>
     <row r="85" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B85" s="2">
         <v>242</v>
@@ -7704,7 +7704,7 @@
     </row>
     <row r="86" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B86" s="2">
         <v>268</v>
@@ -7782,7 +7782,7 @@
     </row>
     <row r="87" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B87" s="2">
         <v>223</v>
@@ -7860,7 +7860,7 @@
     </row>
     <row r="88" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B88" s="2">
         <v>196</v>
@@ -7938,7 +7938,7 @@
     </row>
     <row r="89" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B89" s="2">
         <v>309</v>
@@ -8016,7 +8016,7 @@
     </row>
     <row r="90" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B90" s="2">
         <v>163</v>
@@ -8094,7 +8094,7 @@
     </row>
     <row r="91" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B91" s="2">
         <v>190</v>
@@ -8172,7 +8172,7 @@
     </row>
     <row r="92" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B92" s="2">
         <v>214</v>
@@ -8250,7 +8250,7 @@
     </row>
     <row r="93" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B93" s="2">
         <v>379</v>
@@ -8328,7 +8328,7 @@
     </row>
     <row r="94" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B94" s="2">
         <v>285</v>
@@ -8406,7 +8406,7 @@
     </row>
     <row r="95" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B95" s="2">
         <v>262</v>
@@ -8484,7 +8484,7 @@
     </row>
     <row r="96" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B96" s="2">
         <v>319</v>
@@ -8562,7 +8562,7 @@
     </row>
     <row r="97" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B97" s="2">
         <v>304</v>
@@ -8640,7 +8640,7 @@
     </row>
     <row r="98" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B98" s="2">
         <v>237</v>
@@ -8718,7 +8718,7 @@
     </row>
     <row r="99" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B99" s="2">
         <v>287</v>
@@ -8796,7 +8796,7 @@
     </row>
     <row r="100" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B100" s="2">
         <v>320</v>
@@ -8874,7 +8874,7 @@
     </row>
     <row r="101" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B101" s="2">
         <v>258</v>
@@ -8952,7 +8952,7 @@
     </row>
     <row r="102" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B102" s="2">
         <v>249</v>
@@ -9030,7 +9030,7 @@
     </row>
     <row r="103" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B103" s="2">
         <v>269</v>
@@ -9108,7 +9108,7 @@
     </row>
     <row r="104" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B104" s="2">
         <v>334</v>
@@ -9186,7 +9186,7 @@
     </row>
     <row r="105" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B105" s="2">
         <v>312</v>
@@ -9264,7 +9264,7 @@
     </row>
     <row r="106" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B106" s="2">
         <v>432</v>
@@ -9342,7 +9342,7 @@
     </row>
     <row r="107" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B107" s="2">
         <v>291</v>
@@ -9420,7 +9420,7 @@
     </row>
     <row r="108" spans="1:26" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B108" s="2">
         <v>238</v>
@@ -9498,7 +9498,7 @@
     </row>
     <row r="109" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B109" s="2">
         <v>294</v>
@@ -9576,7 +9576,7 @@
     </row>
     <row r="110" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B110" s="2">
         <v>313</v>
@@ -9654,7 +9654,7 @@
     </row>
     <row r="111" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B111" s="2">
         <v>366</v>
@@ -9732,7 +9732,7 @@
     </row>
     <row r="112" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B112" s="2">
         <v>282</v>
@@ -9810,7 +9810,7 @@
     </row>
     <row r="113" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B113" s="2">
         <v>339</v>
@@ -9888,7 +9888,7 @@
     </row>
     <row r="114" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B114" s="2">
         <v>410</v>
@@ -9966,7 +9966,7 @@
     </row>
     <row r="115" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B115" s="2">
         <v>296</v>
@@ -10044,7 +10044,7 @@
     </row>
     <row r="116" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B116" s="2">
         <v>321</v>
@@ -10122,7 +10122,7 @@
     </row>
     <row r="117" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B117" s="2">
         <v>371</v>
@@ -10200,7 +10200,7 @@
     </row>
     <row r="118" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B118" s="2">
         <v>507</v>
@@ -10278,7 +10278,7 @@
     </row>
     <row r="119" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B119" s="2">
         <v>385</v>
@@ -10356,7 +10356,7 @@
     </row>
     <row r="120" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B120" s="2">
         <v>483</v>
@@ -10434,7 +10434,7 @@
     </row>
     <row r="121" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B121" s="2">
         <v>383</v>
@@ -10512,7 +10512,7 @@
     </row>
     <row r="122" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B122" s="2">
         <v>396</v>
@@ -10590,7 +10590,7 @@
     </row>
     <row r="123" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B123" s="2">
         <v>356</v>
@@ -10668,7 +10668,7 @@
     </row>
     <row r="124" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B124" s="2">
         <v>196</v>
@@ -10746,7 +10746,7 @@
     </row>
     <row r="125" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B125" s="2">
         <v>339</v>
@@ -10824,7 +10824,7 @@
     </row>
     <row r="126" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B126" s="2">
         <v>306</v>
@@ -10902,7 +10902,7 @@
     </row>
     <row r="127" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B127" s="2">
         <v>360</v>
@@ -10980,7 +10980,7 @@
     </row>
     <row r="128" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B128" s="2">
         <v>372</v>
@@ -11058,7 +11058,7 @@
     </row>
     <row r="129" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B129" s="2">
         <v>439</v>
@@ -11136,7 +11136,7 @@
     </row>
     <row r="130" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B130" s="2">
         <v>383</v>
@@ -11214,7 +11214,7 @@
     </row>
     <row r="131" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B131" s="2">
         <v>572</v>
@@ -11292,7 +11292,7 @@
     </row>
     <row r="132" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B132" s="2">
         <v>506</v>
@@ -11370,7 +11370,7 @@
     </row>
     <row r="133" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B133" s="2">
         <v>460</v>
@@ -11448,7 +11448,7 @@
     </row>
     <row r="134" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B134" s="2">
         <v>331</v>
@@ -11526,7 +11526,7 @@
     </row>
     <row r="135" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B135" s="2">
         <v>319</v>
@@ -11604,7 +11604,7 @@
     </row>
     <row r="136" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B136" s="2">
         <v>719</v>
@@ -11682,7 +11682,7 @@
     </row>
     <row r="137" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B137" s="2">
         <v>461</v>
@@ -11760,7 +11760,7 @@
     </row>
     <row r="138" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B138" s="2">
         <v>503</v>
@@ -11838,7 +11838,7 @@
     </row>
     <row r="139" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B139" s="2">
         <v>380</v>
@@ -11916,7 +11916,7 @@
     </row>
     <row r="140" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B140" s="2">
         <v>381</v>
@@ -11994,7 +11994,7 @@
     </row>
     <row r="141" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B141" s="2">
         <v>507</v>
@@ -12072,7 +12072,7 @@
     </row>
     <row r="142" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B142" s="2">
         <v>604</v>
@@ -12150,7 +12150,7 @@
     </row>
     <row r="143" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B143" s="2">
         <v>480</v>
@@ -12228,7 +12228,7 @@
     </row>
     <row r="144" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B144" s="2">
         <v>581</v>
@@ -12306,7 +12306,7 @@
     </row>
     <row r="145" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B145" s="2">
         <v>421</v>
@@ -12384,7 +12384,7 @@
     </row>
     <row r="146" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B146" s="2">
         <v>523</v>
@@ -12462,7 +12462,7 @@
     </row>
     <row r="147" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B147" s="2">
         <v>594</v>
@@ -12540,7 +12540,7 @@
     </row>
     <row r="148" spans="1:26" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B148" s="2">
         <v>444</v>
@@ -12618,7 +12618,7 @@
     </row>
     <row r="149" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B149" s="2">
         <v>403</v>
@@ -12696,7 +12696,7 @@
     </row>
     <row r="150" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B150" s="2">
         <v>629</v>
@@ -12774,7 +12774,7 @@
     </row>
     <row r="151" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B151" s="2">
         <v>440</v>
@@ -12852,7 +12852,7 @@
     </row>
     <row r="152" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B152" s="2">
         <v>496</v>
@@ -12930,7 +12930,7 @@
     </row>
     <row r="153" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B153" s="2">
         <v>633</v>
@@ -13008,7 +13008,7 @@
     </row>
     <row r="154" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B154" s="2">
         <v>592</v>
@@ -13086,7 +13086,7 @@
     </row>
     <row r="155" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B155" s="2">
         <v>528</v>
@@ -13164,7 +13164,7 @@
     </row>
     <row r="156" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B156" s="2">
         <v>450</v>
@@ -13242,7 +13242,7 @@
     </row>
     <row r="157" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B157" s="2">
         <v>581</v>
@@ -13320,7 +13320,7 @@
     </row>
     <row r="158" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B158" s="2">
         <v>600</v>
@@ -13398,7 +13398,7 @@
     </row>
     <row r="159" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B159" s="2">
         <v>490</v>
@@ -13476,7 +13476,7 @@
     </row>
     <row r="160" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B160" s="2">
         <v>760</v>
@@ -13554,7 +13554,7 @@
     </row>
     <row r="161" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B161" s="2">
         <v>487</v>
@@ -13632,7 +13632,7 @@
     </row>
     <row r="162" spans="1:26" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B162" s="2">
         <v>551</v>
@@ -13710,7 +13710,7 @@
     </row>
     <row r="163" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B163" s="2">
         <v>511</v>
@@ -13788,7 +13788,7 @@
     </row>
     <row r="164" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B164" s="2">
         <v>579</v>
@@ -13866,7 +13866,7 @@
     </row>
     <row r="165" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B165" s="2">
         <v>791</v>
@@ -13944,7 +13944,7 @@
     </row>
     <row r="166" spans="1:26" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B166" s="2">
         <v>539</v>
@@ -14022,7 +14022,7 @@
     </row>
     <row r="167" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B167" s="2">
         <v>805</v>
@@ -14100,7 +14100,7 @@
     </row>
     <row r="168" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B168" s="2">
         <v>820</v>
@@ -14178,7 +14178,7 @@
     </row>
     <row r="169" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B169" s="2">
         <v>785</v>
@@ -14256,7 +14256,7 @@
     </row>
     <row r="170" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B170" s="2">
         <v>860</v>
@@ -14334,7 +14334,7 @@
     </row>
     <row r="171" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B171" s="2">
         <v>675</v>
@@ -14412,7 +14412,7 @@
     </row>
     <row r="172" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B172" s="2">
         <v>833</v>
@@ -14490,7 +14490,7 @@
     </row>
     <row r="173" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B173" s="2">
         <v>1074</v>
@@ -14568,7 +14568,7 @@
     </row>
     <row r="174" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B174" s="2">
         <v>941</v>
@@ -14646,7 +14646,7 @@
     </row>
     <row r="175" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B175" s="2">
         <v>1278</v>
@@ -14724,7 +14724,7 @@
     </row>
     <row r="176" spans="1:26" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B176" s="2">
         <v>785</v>
@@ -14802,7 +14802,7 @@
     </row>
     <row r="177" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B177" s="2">
         <v>1201</v>
@@ -14880,7 +14880,7 @@
     </row>
     <row r="178" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B178" s="2">
         <v>768</v>
@@ -14958,7 +14958,7 @@
     </row>
     <row r="179" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B179" s="2">
         <v>779</v>
@@ -15036,7 +15036,7 @@
     </row>
     <row r="180" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B180" s="2">
         <v>718</v>
@@ -15114,7 +15114,7 @@
     </row>
     <row r="181" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B181" s="2">
         <v>804</v>
@@ -15192,7 +15192,7 @@
     </row>
     <row r="182" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B182" s="2">
         <v>1325</v>
@@ -15270,7 +15270,7 @@
     </row>
     <row r="183" spans="1:26" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B183" s="2">
         <v>635</v>
@@ -15348,7 +15348,7 @@
     </row>
     <row r="184" spans="1:26" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B184" s="2">
         <v>779</v>
@@ -15426,7 +15426,7 @@
     </row>
     <row r="185" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B185" s="2">
         <v>1153</v>
@@ -15504,7 +15504,7 @@
     </row>
     <row r="186" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B186" s="2">
         <v>964</v>
@@ -15582,7 +15582,7 @@
     </row>
     <row r="187" spans="1:26" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B187" s="2">
         <v>2280</v>
@@ -15660,7 +15660,7 @@
     </row>
     <row r="188" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B188" s="2">
         <v>1178</v>
@@ -15738,7 +15738,7 @@
     </row>
     <row r="189" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B189" s="2">
         <v>1056</v>
@@ -15816,7 +15816,7 @@
     </row>
     <row r="190" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B190" s="2">
         <v>1194</v>
@@ -15894,7 +15894,7 @@
     </row>
     <row r="191" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B191" s="2">
         <v>1446</v>
@@ -15972,7 +15972,7 @@
     </row>
     <row r="192" spans="1:26" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B192" s="2">
         <v>1129</v>
@@ -16050,7 +16050,7 @@
     </row>
     <row r="193" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B193" s="2">
         <v>1266</v>
@@ -16128,7 +16128,7 @@
     </row>
     <row r="194" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B194" s="2">
         <v>1917</v>
@@ -16206,7 +16206,7 @@
     </row>
     <row r="195" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B195" s="2">
         <v>4312</v>
@@ -16284,7 +16284,7 @@
     </row>
     <row r="196" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B196" s="2">
         <v>4054</v>
@@ -16362,7 +16362,7 @@
     </row>
     <row r="197" spans="1:26" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B197" s="2">
         <v>1741</v>
@@ -16440,7 +16440,7 @@
     </row>
     <row r="198" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B198" s="2">
         <v>2125</v>
